--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/2. barplot_혼합음료 제조사 정보/data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/2. barplot_혼합음료 제조사 정보/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\barplot_혼합음료 제조사 정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\2. barplot_혼합음료 제조사 정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B27"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
